--- a/mapping_schemes/central/TCD_RES.xlsx
+++ b/mapping_schemes/central/TCD_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/Central/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC54B2C-94EF-8341-9A29-2931369F4A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85220B54-AC19-C542-BB5B-9CDDAAD9F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="880" windowWidth="21380" windowHeight="17120" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="10400" yWindow="880" windowWidth="21380" windowHeight="17120" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="105">
   <si>
     <t>Urban</t>
   </si>
@@ -6063,10 +6063,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6367,46 +6367,46 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>53</v>
+      <c r="A24" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -6414,16 +6414,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6434,38 +6434,38 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2">
         <v>0.5</v>
@@ -6484,27 +6484,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -6512,16 +6512,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -6532,10 +6532,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2">
         <v>0.35</v>
@@ -6554,30 +6554,30 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2">
         <v>0.5</v>
@@ -6596,27 +6596,45 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D39" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
@@ -6627,13 +6645,12 @@
       <c r="A42" s="10"/>
       <c r="B42" s="5"/>
       <c r="C42" s="3"/>
-      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
@@ -6675,6 +6692,7 @@
       <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="C50" s="3"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
@@ -6722,9 +6740,9 @@
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
@@ -6739,7 +6757,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
@@ -6754,11 +6772,11 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
@@ -6814,6 +6832,11 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,7 +6848,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
